--- a/medicine/Mort/Nécropole_nationale_de_Cambronne-lès-Ribécourt/Nécropole_nationale_de_Cambronne-lès-Ribécourt.xlsx
+++ b/medicine/Mort/Nécropole_nationale_de_Cambronne-lès-Ribécourt/Nécropole_nationale_de_Cambronne-lès-Ribécourt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Cambronne-l%C3%A8s-Rib%C3%A9court</t>
+          <t>Nécropole_nationale_de_Cambronne-lès-Ribécourt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole nationale de Cambronne-lès-Ribécourt est un cimetière militaire français de la Première Guerre mondiale et de la Seconde Guerre mondiale, situé sur le territoire de la commune de Cambronne-lès-Ribécourt dans le département de l'Oise. La nécropole nationale est située en bordure de la N 32, entre Ribécourt et Compiègne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Cambronne-l%C3%A8s-Rib%C3%A9court</t>
+          <t>Nécropole_nationale_de_Cambronne-lès-Ribécourt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette nécropole a été créée en 1950. De 1950 à 1970 ont été inhumés les corps de soldats de la Seconde Guerre mondiale exhumés dans les départements de l'Eure, de l'Oise, de la Somme et de la Seine-Maritime. De 1972 à 1974, ont été regroupés ici les dépouilles de soldats de la Première Guerre mondiale exhumés de carrés militaires communaux de des quatre départements[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette nécropole a été créée en 1950. De 1950 à 1970 ont été inhumés les corps de soldats de la Seconde Guerre mondiale exhumés dans les départements de l'Eure, de l'Oise, de la Somme et de la Seine-Maritime. De 1972 à 1974, ont été regroupés ici les dépouilles de soldats de la Première Guerre mondiale exhumés de carrés militaires communaux de des quatre départements.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Cambronne-l%C3%A8s-Rib%C3%A9court</t>
+          <t>Nécropole_nationale_de_Cambronne-lès-Ribécourt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nécropole de près d'1 ha rassemble 2 237 tombes : 126 de la Première Guerre mondiale, alignées au fond du cimetière et 2 111 soldats et résistants de la Seconde Guerre mondiale dont un Espagnol, trois Polonais et un Roumain. Leurs les tombes sont disposées en arc de cercle[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nécropole de près d'1 ha rassemble 2 237 tombes : 126 de la Première Guerre mondiale, alignées au fond du cimetière et 2 111 soldats et résistants de la Seconde Guerre mondiale dont un Espagnol, trois Polonais et un Roumain. Leurs les tombes sont disposées en arc de cercle.
 </t>
         </is>
       </c>
